--- a/Reports/Data.xlsx
+++ b/Reports/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Documentos\UiPath\Demo Procesamiento Facturas OCR\Reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Respaldo\Disco Seagate\Documentos\UiPath\Demo Procesamiento Facturas OCR\Reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF77DB-7373-4E89-81F7-31D66E08F5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C03B60-08EF-4335-A1AA-F087040167D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7BB7D552-E851-4136-A94A-0FA013AF4CBE}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{7BB7D552-E851-4136-A94A-0FA013AF4CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Invoice</t>
   </si>
@@ -48,6 +48,48 @@
   </si>
   <si>
     <t>Amount</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>FACTURA N.º 4254-2730-0939</t>
+  </si>
+  <si>
+    <t>Equipo de computo</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>30/08/2022</t>
+  </si>
+  <si>
+    <t>Inversión transitoria</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Gastos por honorarios</t>
+  </si>
+  <si>
+    <t>INV/2023/00010</t>
+  </si>
+  <si>
+    <t>Pencil</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>Clipboard</t>
+  </si>
+  <si>
+    <t>Printer Ink</t>
   </si>
 </sst>
 </file>
@@ -96,9 +138,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
@@ -414,15 +457,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50D558FB-25C4-464F-A994-EA1D67943DCD}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -434,6 +477,128 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>1750000</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>44991</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>1000000</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>94</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4">
+        <v>500000</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5">
+        <v>350000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45079</v>
+      </c>
+      <c r="C8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
